--- a/R/Intro.to.Stat.xlsx
+++ b/R/Intro.to.Stat.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE6C6BC-B912-6649-974D-13FE85CEE4DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB6D1C2-566B-1A49-A3B9-01C96CFF4E3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="960" windowWidth="25900" windowHeight="13920" xr2:uid="{BB9AA306-BFAC-9B4F-B17D-065F60A1BE26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{BB9AA306-BFAC-9B4F-B17D-065F60A1BE26}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chapter 5" sheetId="2" r:id="rId1"/>
-    <sheet name="Chapter 6" sheetId="1" r:id="rId2"/>
+    <sheet name="Chapter 4" sheetId="3" r:id="rId1"/>
+    <sheet name="Chapter 5" sheetId="2" r:id="rId2"/>
+    <sheet name="Chapter 6" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="163">
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +460,230 @@
   </si>
   <si>
     <t>Ka^2_24,0.995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 &lt;= x &lt;= 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x &gt;= 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x &gt;= 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STDDEV(X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기하분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포아송분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m = np =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(Z &lt; 1.96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(-1.96 &lt; Z &lt; 1.96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(Z &gt; 1.96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X &lt; 94.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z = (X - u)/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X &gt; 57.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X &lt; 90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(100 &lt; X &lt; 115)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X &gt; 120)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(57.7 &lt; X &lt; 94.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본분포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 4-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z=(X - u)/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X &lt;= 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(Z &lt;= -1.376)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(3&lt;=X&lt;=7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(X &lt;= 2)_BIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(확인 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(71 , 82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(P &lt; 78)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(P &gt; 75)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,8 +691,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -508,17 +735,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,11 +1067,662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010E1A78-FF86-A140-B68A-20B361CF6422}">
+  <dimension ref="B2:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="4">
+        <f>1/600</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2">
+        <f>_xlfn.BINOM.DIST(3,10,0.2,FALSE)</f>
+        <v>0.20132659200000003</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="2">
+        <f>_xlfn.BINOM.DIST(4,8,0.3,FALSE)</f>
+        <v>0.1361367</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6">
+        <f>I4*I5</f>
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2">
+        <f>1-_xlfn.BINOM.DIST(1,10,0.2,TRUE)</f>
+        <v>0.62419036159999974</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2">
+        <f>_xlfn.BINOM.DIST(7,8,0.3,TRUE)-_xlfn.BINOM.DIST(2,8,0.3,TRUE)</f>
+        <v>0.44816057999999992</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.HYPGEOM.DIST(0, 2, 2, 5, FALSE)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="2">
+        <f>_xlfn.POISSON.DIST(0, I$6, FALSE)</f>
+        <v>4.5049202393557801E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="2">
+        <f>_xlfn.POISSON.DIST(4, K6, FALSE)</f>
+        <v>0.13385261753998337</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8">
+        <f>C4*C5</f>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="2">
+        <f>1-_xlfn.BINOM.DIST(5,8,0.3,TRUE)</f>
+        <v>1.1292210000000025E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.HYPGEOM.DIST(1, G6, G5, G4, FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="2">
+        <f>_xlfn.POISSON.DIST(1, I$6, FALSE)</f>
+        <v>0.1396525274200292</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SQRT(C4*C5*(1-C5))</f>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="F9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.HYPGEOM.DIST(2, 2, 2, 5, FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="2">
+        <f>_xlfn.POISSON.DIST(2, I$6, FALSE)</f>
+        <v>0.21646141750104531</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="2">
+        <f>_xlfn.NORM.DIST(1.96, 0, 1, TRUE)</f>
+        <v>0.97500210485177952</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13">
+        <v>110</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGE(J13:J17)</f>
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" s="2">
+        <f>_xlfn.NORM.DIST(1.96,0,1,TRUE)-_xlfn.NORM.DIST(-1.96,0,1,TRUE)</f>
+        <v>0.95000420970355903</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" s="4">
+        <f>_xlfn.BINOM.DIST(2,M13,M14,TRUE)</f>
+        <v>0.11826298118512098</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="2">
+        <f>1-_xlfn.NORM.DIST(1.96,0,1,TRUE)</f>
+        <v>2.4997895148220484E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="4">
+        <f>_xlfn.NORM.DIST(94.3, E13, E14, TRUE)</f>
+        <v>0.99245058858369084</v>
+      </c>
+      <c r="F16" s="3">
+        <f>(94.3 - $E$13)/$E$14</f>
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="G16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="4">
+        <f>_xlfn.NORM.DIST(90,H13,H14,TRUE)</f>
+        <v>2.2750131948179191E-2</v>
+      </c>
+      <c r="I16">
+        <f>(90-H13)/H14</f>
+        <v>-2</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <f>_xlfn.VAR.P(J13:J17)</f>
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f>M13*M14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="4">
+        <f>1-_xlfn.NORM.DIST((57.7-E13)/E14,0,1,TRUE)</f>
+        <v>0.89065144757430803</v>
+      </c>
+      <c r="F17">
+        <f>(57.7-E13)/E14</f>
+        <v>-1.2299999999999998</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17">
+        <f>(100-H13)/H14</f>
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <f>M13*M14*(1-M14)</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="4">
+        <f>_xlfn.NORM.DIST(115,H13,H14,TRUE)-_xlfn.NORM.DIST(100,H13,H14,TRUE)</f>
+        <v>0.53280720734255616</v>
+      </c>
+      <c r="I18">
+        <f>(115-H13)/H14</f>
+        <v>0.5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="4">
+        <f>_xlfn.NORM.DIST(2,M16,SQRT(M17),TRUE)</f>
+        <v>8.4334309443907546E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="E19" s="5">
+        <f>E16-(1-E17)</f>
+        <v>0.88310203615799887</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="4">
+        <f>1-_xlfn.NORM.DIST(120,H13,H14,TRUE)</f>
+        <v>0.15865525393145696</v>
+      </c>
+      <c r="I19">
+        <f>(120-H13)/H14</f>
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="4">
+        <f>(2-M16)/SQRT(M17)</f>
+        <v>-1.3764944032233704</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" s="4">
+        <f>_xlfn.NORM.DIST(M19,0,1,TRUE)</f>
+        <v>8.4334309443907546E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="L21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="4">
+        <f>_xlfn.NORM.DIST((7-5)/SQRT(M17),0,1,TRUE)-_xlfn.NORM.DIST((3-5)/SQRT(M17),0,1,TRUE)</f>
+        <v>0.64120464211305839</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="M22" s="4">
+        <f>_xlfn.BINOM.DIST(7,100,0.05,TRUE)-_xlfn.BINOM.DIST(3,100,0.05,TRUE)</f>
+        <v>0.6142008622636046</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="4">
+        <f>_xlfn.NORM.DIST(450,400,50,TRUE)</f>
+        <v>0.84134474606854304</v>
+      </c>
+      <c r="C24" s="4">
+        <f>_xlfn.BINOM.DIST(315,1200, 0.25, TRUE)</f>
+        <v>0.84920156486350951</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>3.25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="4">
+        <f>_xlfn.NORM.DIST(82,76,10,TRUE)-_xlfn.NORM.DIST(71,76,10,TRUE)</f>
+        <v>0.41720934352393957</v>
+      </c>
+      <c r="I24">
+        <f>(71-76)/10</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J24">
+        <v>0.3085</v>
+      </c>
+      <c r="K24" s="4">
+        <f>_xlfn.BINOM.DIST(3,4,1/9,FALSE)</f>
+        <v>4.8773052888279201E-3</v>
+      </c>
+      <c r="L24" s="4">
+        <f>1-_xlfn.BINOM.DIST(0,5,0.1,TRUE)</f>
+        <v>0.40951000000000004</v>
+      </c>
+      <c r="M24" s="4">
+        <f>_xlfn.POISSON.DIST(5,2.5,FALSE)</f>
+        <v>6.6800942890542642E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="4">
+        <f>_xlfn.NORM.DIST(500,400,50,TRUE)</f>
+        <v>0.97724986805182079</v>
+      </c>
+      <c r="C25" s="4">
+        <f>_xlfn.BINOM.DIST(285,1200,0.25,TRUE)</f>
+        <v>0.16693786411820402</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <f>(380-250)/20</f>
+        <v>6.5</v>
+      </c>
+      <c r="I25">
+        <f>(82-76)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="J25">
+        <v>0.72570000000000001</v>
+      </c>
+      <c r="M25" s="4">
+        <f>1-_xlfn.POISSON.DIST(4,2.5,TRUE)</f>
+        <v>0.10882198108584873</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="3">
+        <f>B25-B24</f>
+        <v>0.13590512198327775</v>
+      </c>
+      <c r="C26" s="4">
+        <f>C24-C25</f>
+        <v>0.68226370074530551</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3.25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="4">
+        <f>1-_xlfn.NORM.DIST(75,76,10,TRUE)</f>
+        <v>0.53982783727702899</v>
+      </c>
+      <c r="I26">
+        <f>(75-76)/10</f>
+        <v>-0.1</v>
+      </c>
+      <c r="J26">
+        <v>0.4602</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27">
+        <f>E25/SQRT(25)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="4">
+        <f>_xlfn.NORM.DIST(78,76,10,TRUE)</f>
+        <v>0.57925970943910299</v>
+      </c>
+      <c r="I27">
+        <f>(78-76)/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="J27">
+        <v>0.57930000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="D28" s="4">
+        <f>_xlfn.NORM.DIST(3,3.25,0.1,TRUE)</f>
+        <v>6.2096653257761331E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73512E1-B235-5E41-9501-7B0B02A011F3}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1525,7 +2409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85035AF-65DC-684C-BC84-5EF96E8E4809}">
   <dimension ref="A1:P36"/>
   <sheetViews>
